--- a/CFFW/hittable.xlsx
+++ b/CFFW/hittable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate-my.sharepoint.com/personal/xander3_colostate_edu/Documents/Xander Personal/Code/eclipse-workspace/CFFW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Users\Xander\GitHub\cffw-java\CFFW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1710" documentId="11_F25DC773A252ABDACC1048E5091A61125BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC477E2F-C3A7-4A37-BA00-AB116A15082B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB0405B-FCDE-4091-A3C6-2A8475F4B66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="570" windowWidth="28665" windowHeight="9690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13005" yWindow="4905" windowWidth="14955" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -912,10 +912,10 @@
   <dimension ref="A1:BF43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>9</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>10</v>
